--- a/TB-2 24_08_2019_to_29_02_2020.xlsx
+++ b/TB-2 24_08_2019_to_29_02_2020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishal.ty\Desktop\POSTGRES DATABASE SQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vishal\Training-Batch-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD5886E-2FD8-47E2-AC43-81FEF2365BA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651B3E0F-CB8D-4685-930E-47059E538CA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{26DE77F6-00B9-4821-9188-EF28DB6B1325}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="86">
   <si>
     <t xml:space="preserve">DATE </t>
   </si>
@@ -1825,7 +1825,7 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2267,7 +2267,9 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -2285,7 +2287,9 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
